--- a/biology/Zoologie/Cladobranchia/Cladobranchia.xlsx
+++ b/biology/Zoologie/Cladobranchia/Cladobranchia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cladobranchia sont l'un des deux sous-ordres de mollusques nudibranches, l'autre étant celui des Doridina.
 </t>
@@ -511,10 +523,12 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce taxon, proposé en 1984[1] puis abandonné et enfin ressuscité, remplace depuis environ 2017 celui des Dexiarchia. 
-Ce groupe contient au moins un millier d'espèces de limaces nudibranches[2] cladohépatiques, caractérisés par des branchies généralement en position latérale et modifiés en cérates, ainsi qu'une glande digestive généralement ramifiée, connectée à l'autre extrémité à un anus en position latérale droite[3].  
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon, proposé en 1984 puis abandonné et enfin ressuscité, remplace depuis environ 2017 celui des Dexiarchia. 
+Ce groupe contient au moins un millier d'espèces de limaces nudibranches cladohépatiques, caractérisés par des branchies généralement en position latérale et modifiés en cérates, ainsi qu'une glande digestive généralement ramifiée, connectée à l'autre extrémité à un anus en position latérale droite.  
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (14 février 2020)[4], prenant pour base la taxinomie de Bouchet &amp; Rocroi (2005), on compte sept super-familles :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (14 février 2020), prenant pour base la taxinomie de Bouchet &amp; Rocroi (2005), on compte sept super-familles :
 super-famille des Aeolidioidea Gray, 1827
 famille des Aeolidiidae Gray, 1827
 famille des Babakinidae Roller, 1973
